--- a/biology/Botanique/Tetraberlinia_korupensis/Tetraberlinia_korupensis.xlsx
+++ b/biology/Botanique/Tetraberlinia_korupensis/Tetraberlinia_korupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tetraberlinia korupensis Wieringa [2] est une espèce d'arbres de la famille des Fabaceae et du genre Tetraberlinia, endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tetraberlinia korupensis Wieringa  est une espèce d'arbres de la famille des Fabaceae et du genre Tetraberlinia, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique korupensis fait référence au parc national de Korup où elle a été observée près de Mundemba[3], à l'ouest du Cameroun.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique korupensis fait référence au parc national de Korup où elle a été observée près de Mundemba, à l'ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre peut mesurer jusqu'à 55 mètres. Il possède un tronc cylindrique, parfois légèrement enflé à la base, et son diamètre moyen à hauteur de poitrine peut atteindre 150 cm[4].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre peut mesurer jusqu'à 55 mètres. Il possède un tronc cylindrique, parfois légèrement enflé à la base, et son diamètre moyen à hauteur de poitrine peut atteindre 150 cm.  
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se développe dans les forêts tropicales humides primaires et secondaires, sur sol sableux. Globalement assez rare[5], elle peut être très abondante sur des espaces restreints, entre 50 et 170 mètres d'altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se développe dans les forêts tropicales humides primaires et secondaires, sur sol sableux. Globalement assez rare, elle peut être très abondante sur des espaces restreints, entre 50 et 170 mètres d'altitude.
 </t>
         </is>
       </c>
